--- a/Team_Bration_Tasks.xlsx
+++ b/Team_Bration_Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doucments\lubaka\SoftUni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doucments\lubaka\SoftUni\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Write a Use cases for application functionality</t>
-  </si>
-  <si>
-    <t>Write a Test scenario fro functionality test.</t>
   </si>
   <si>
     <t>Create some automation tests using Selenium IDE</t>
@@ -134,6 +131,15 @@
   </si>
   <si>
     <t>Discuss and Modify the functionality of selected application to meet the project scopes.</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>reject this option we will create a own JAVA application</t>
+  </si>
+  <si>
+    <t>Write a Test scenario for functionality test.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -569,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -580,16 +586,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -597,16 +603,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -617,10 +623,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -630,9 +640,11 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -640,12 +652,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -656,7 +670,9 @@
         <v>9</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -667,7 +683,9 @@
         <v>8</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -678,7 +696,9 @@
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -686,10 +706,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -719,7 +741,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -730,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -741,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -752,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -763,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -774,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>

--- a/Team_Bration_Tasks.xlsx
+++ b/Team_Bration_Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -139,7 +139,28 @@
     <t>reject this option we will create a own JAVA application</t>
   </si>
   <si>
-    <t>Write a Test scenario for functionality test.</t>
+    <t>Write a Testplan for functionality test.</t>
+  </si>
+  <si>
+    <t>Vsabev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bubulina, TanqIovkova</t>
+  </si>
+  <si>
+    <t>Check and discuss the code of application and all document for project</t>
+  </si>
+  <si>
+    <t>Test and add bug for JCNEx</t>
+  </si>
+  <si>
+    <t>Codding the JAVA application to edit a XML file</t>
+  </si>
+  <si>
+    <t>General functionality of app is to extraxt Contract number form xml document</t>
+  </si>
+  <si>
+    <t>added some interesting SRS documents</t>
   </si>
 </sst>
 </file>
@@ -534,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -546,7 +567,7 @@
     <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -643,9 +664,11 @@
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -658,9 +681,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -669,11 +694,15 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -682,11 +711,15 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -695,11 +728,15 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -708,10 +745,8 @@
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -721,8 +756,12 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -732,8 +771,12 @@
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -743,8 +786,12 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -765,8 +812,12 @@
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -774,10 +825,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -785,10 +840,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -796,22 +855,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -878,6 +947,20 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Team_Bration_Tasks.xlsx
+++ b/Team_Bration_Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>lgoychev: done; nrayanov: done</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <r>
@@ -558,7 +555,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -599,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -644,13 +641,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -661,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -675,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
@@ -684,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -701,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -718,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -735,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -759,8 +756,8 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -772,10 +769,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -784,13 +781,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -801,8 +798,12 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -815,8 +816,8 @@
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -825,13 +826,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -840,13 +841,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -857,9 +858,11 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -870,8 +873,12 @@
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -881,8 +888,12 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
